--- a/Documentação/Sprint3/metrica.xlsx
+++ b/Documentação/Sprint3/metrica.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>metrica</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Se a temperatura estiver acima de 80°C emitiremos alerta, para garantir que não haja perca de equipamento</t>
+  </si>
+  <si>
+    <t>Velocidade do funSpeed</t>
+  </si>
+  <si>
+    <t>envio de alerta se &lt;400rpm</t>
   </si>
 </sst>
 </file>
@@ -80,10 +86,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -368,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E4:E5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,7 +400,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -399,7 +408,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -407,8 +416,16 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
